--- a/biology/Biochimie/Peptidase/Peptidase.xlsx
+++ b/biology/Biochimie/Peptidase/Peptidase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les peptidases (ou protéases ou enzymes protéolytiques) sont des enzymes qui brisent les liaisons peptidiques des protéines. On parle alors de coupure protéolytique ou de protéolyse. Ce processus implique l'utilisation d'une molécule d'eau ce qui les classe parmi les hydrolases.
 Les fonctions biologiques des protéases sont variées : elles interviennent dans la maturation des protéines, dans la digestion des aliments, dans la coagulation sanguine, dans le remodelage des tissus au cours du développement de l'organisme et dans la cicatrisation. Certaines protéases sont des toxines, comme la toxine botulique.
@@ -513,7 +525,9 @@
           <t>Classification fonctionnelle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe différentes familles fonctionnelles de peptidases, qui sont classées en fonction de la position où a lieu la coupure dans la chaîne peptidique :
 Les exopeptidases (ou exoprotéases) :
@@ -549,7 +563,9 @@
           <t>Mécanisme d'action</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs mécanismes d'action ont été décrits pour les protéases, ce qui permet de les regrouper en grandes familles mécanistiques, en fonction de la nature du ou des acides aminés du site actif impliqué dans la catalyse. On distingue ainsi :
 Les protéases à sérine qui possèdent une triade catalytique caractéristique comprenant une sérine (d'où leur nom), une histidine et un aspartate. Le groupement hydroxyle de la sérine joue le rôle de nucléophile et attaque le carbonyle de la liaison peptidique. Parmi les protéases à sérine, on peut citer :
@@ -597,12 +613,14 @@
           <t>Occurrence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les protéases sont des enzymes très abondantes dans le règne vivant. On en trouve chez tous les organismes vivants et les gènes qui codent ces protéines peuvent constituer de 1 à 5 % du contenu en gènes du génome.
 Chez les microbes, de nombreuses bactéries produisent des protéases capables de dégrader aussi bien des protéines que des oligopeptides. 
-Les espèces protéolytiques les plus connues sont les Clostridium, les Bacillus, les Proteus, les Streptomyces, les Pseudomonas[1].
-Les virus peuvent aussi coder des protéases ; c'est le cas par exemple des Flaviviridae (virus à ARN simple brin) [2]
+Les espèces protéolytiques les plus connues sont les Clostridium, les Bacillus, les Proteus, les Streptomyces, les Pseudomonas.
+Les virus peuvent aussi coder des protéases ; c'est le cas par exemple des Flaviviridae (virus à ARN simple brin) 
 </t>
         </is>
       </c>
@@ -631,14 +649,16 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Des protéases purifiées sont utilisées pour des biotransformations, par exemple :
 la présure de veau utilisée dans l'industrie du fromage contient des protéases digestives ;
 les protéases utilisées pour attendrir la viande.
 Des protéases sont également utilisées dans :
 les lessives pour dégrader les protéines présentes dans les taches d'origine alimentaire ;
-les solutions nettoyantes comme celles utilisées pour des lentilles de contact[3].</t>
+les solutions nettoyantes comme celles utilisées pour des lentilles de contact.</t>
         </is>
       </c>
     </row>
@@ -666,18 +686,89 @@
           <t>Inhibiteurs de protéase</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Ce sont des molécules qui bloquent l'activité des protéases ; elles ont souvent des propriétés pharmacologiques intéressantes (antivirales potentiellement), compte tenu de la diversité des mécanismes physiologiques dans lesquels sont impliqués les protéases. 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des molécules qui bloquent l'activité des protéases ; elles ont souvent des propriétés pharmacologiques intéressantes (antivirales potentiellement), compte tenu de la diversité des mécanismes physiologiques dans lesquels sont impliqués les protéases. 
 Les modes de blocage sont variés, allant d'un blocage par une autre protéine qui séquestre la protéase, à l'inactivation irréversible de résidus du site actif par un composé chimique (inhibiteur suicide), en passant par des analogues de peptides qui miment le substrat naturel.
-Exemples d'inhibiteurs de protéases
-L'hirudine (protéine produite par la sangsue Hirudo medicinalis), qui empêche l'activité de la thrombine, protéase de la coagulation. Elle est utilisée par la sangsue comme anticoagulant lorsqu'elle suce une proie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Peptidase</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Peptidase</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Inhibiteurs de protéase</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Exemples d'inhibiteurs de protéases</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>L'hirudine (protéine produite par la sangsue Hirudo medicinalis), qui empêche l'activité de la thrombine, protéase de la coagulation. Elle est utilisée par la sangsue comme anticoagulant lorsqu'elle suce une proie.
 Le PMSF (fluorure de phénylméthylsulfonyle), un inhibiteur des protéases à sérine réagissant de manière covalente avec la sérine du site actif. le PMSF et plusieurs inhibiteurs des protéases à sérines sont aussi des inhibiteurs des cholinestérases, ce qui en fait des produits neurotoxiques.
-Divers chélatants, comme l'EDTA, sont utilisés comme inhibiteurs de métalloprotéases. Ils agissent en séquestrant les ions métalliques indispensables à l'activité de ces enzymes.
-Exemples de médicaments
-Voir les Inhibiteurs de protéases en pharmacologie: antiprotéases VIH-1, antirétroviraux
+Divers chélatants, comme l'EDTA, sont utilisés comme inhibiteurs de métalloprotéases. Ils agissent en séquestrant les ions métalliques indispensables à l'activité de ces enzymes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Peptidase</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Peptidase</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Inhibiteurs de protéase</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Exemples de médicaments</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Voir les Inhibiteurs de protéases en pharmacologie: antiprotéases VIH-1, antirétroviraux
 Captopril : inhibiteur de l'enzyme de conversion de l'angiotensine, antihypertenseur
-Racécadotril (marque commerciale : Tiorfan) : inhibiteur de l'enképhalinase intestinale, antidiarrhéique [1].</t>
+Racécadotril (marque commerciale : Tiorfan) : inhibiteur de l'enképhalinase intestinale, antidiarrhéique .</t>
         </is>
       </c>
     </row>
